--- a/biology/Médecine/Friedrich_Trendelenburg/Friedrich_Trendelenburg.xlsx
+++ b/biology/Médecine/Friedrich_Trendelenburg/Friedrich_Trendelenburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Trendelenburg, né le 24 mai 1844 à Berlin et mort le 15 décembre 1924 dans la même ville, est un chirurgien allemand, fils du philosophe Friedrich Adolf Trendelenburg. Il a donné son nom a un certain nombre de traitements médicaux et d'appellations médicales.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudia la médecine à l'université de Glasgow et à l'université d'Édimbourg, puis compléta son savoir médical à Berlin sous la direction de Bernhard von Langenbeck, avec l'obtention de son doctorat en 1866.
 Il pratiqua alors la médecine dans les villes de Rostock et de Bonn, jusqu'à devenir chirurgien en chef à Leipzig, en 1895.
@@ -544,7 +558,9 @@
           <t>Innovations chirurgicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Trendelenburg est surtout connu pour la position de Trendelenburg dans laquelle le patient est placé sur un lit incliné de telle sorte que la tête du patient soit plus basse que ses pieds. Trendelenburg utilisa cette technique pour la première fois en 1881, dans le cas d'une chirurgie abdominale. Avant lui, le chirurgien arabe du Xe siècle Abu Al-Qasim avait déjà expérimenté cette technique, sans que la pratique ne soit perpétuée.
 Il est aussi connu pour être l'inventeur du canule de Trendelenburg, qui est un outil utilisé lors de chirurgies du larynx, afin d'éviter que le patient n'avale du sang durant l'opération.
